--- a/data/exports/regra_1.xlsx
+++ b/data/exports/regra_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,38 +529,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chutes no alvo TOTAL &gt;= 2 ate 20min</t>
+          <t>1 chute</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-01-13 19:19:56</t>
+          <t>2026-01-14 01:14:37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Inglaterra - EFL Trophy</t>
+          <t>México - Liga MX</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Huddersfield</t>
+          <t>Necaxa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rotherham</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0 x 0</t>
+          <t>0 x 1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -572,12 +572,12 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>https://pt.betsapi.com/r/11096123/Huddersfield-vs-Rotherham</t>
+          <t>https://pt.betsapi.com/r/11140015/Necaxa-vs-Monterrey</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"Goals": {"home": 0, "away": 0, "total": 0}, "Corners": {"home": 3, "away": 0, "total": 3}, "Amarelo": {"home": 1, "away": 0, "total": 1}, "Cart\u00e3o Vermelho": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Substitui\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Ataques": {"home": 29, "away": 13, "total": 42}, "Ataques Perigosos": {"home": 16, "away": 4, "total": 20}, "On Target": {"home": 2, "away": 0, "total": 2}, "Ao Lado": {"home": 3, "away": 0, "total": 3}, "Key Passes": {"home": 3, "away": 0, "total": 3}, "Passing Accuracy": {"home": 88, "away": 82, "total": 170}, "Crosses": {"home": 6, "away": 1, "total": 7}, "Crossing Accuracy": {"home": 0, "away": 0, "total": 0}, "Total market value": {"home": 16, "away": 9, "total": 25}, "Avg. market value": {"home": 602, "away": 307, "total": 909}, "Avg. Age": {"home": 26, "away": 25, "total": 51}, "National team players": {"home": 2, "away": 1, "total": 3}, "Youth national team players": {"home": 1, "away": 0, "total": 1}, "Foreigners": {"home": 13, "away": 9, "total": 22}, "Minute": {"home": 19, "away": 19, "total": 19}}</t>
+          <t>{"Goals": {"home": 0, "away": 1, "total": 1}, "Corners": {"home": 0, "away": 0, "total": 0}, "Yellow Card": {"home": 0, "away": 0, "total": 0}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Substitutions": {"home": 0, "away": 0, "total": 0}, "On Target": {"home": 0, "away": 1, "total": 1}, "Ao Lado": {"home": 0, "away": 3, "total": 3}, "% de Posse": {"home": 38, "away": 62, "total": 100}, "Key Passes": {"home": 0, "away": 1, "total": 1}, "Passing Accuracy": {"home": 82, "away": 91, "total": 173}, "Crosses": {"home": 1, "away": 2, "total": 3}, "Crossing Accuracy": {"home": 0, "away": 0, "total": 0}, "Total market value": {"home": 41, "away": 68, "total": 109}, "Avg. market value": {"home": 1, "away": 2, "total": 3}, "Avg. Age": {"home": 25, "away": 28, "total": 53}, "National team players": {"home": 1, "away": 3, "total": 4}, "Youth national team players": {"home": 1, "away": 2, "total": 3}, "Foreigners": {"home": 10, "away": 8, "total": 18}, "Minute": {"home": 14, "away": 14, "total": 14}}</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
@@ -592,38 +592,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chutes no alvo TOTAL &gt;= 2 ate 20min</t>
+          <t>1 chute</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2026-01-13 19:20:00</t>
+          <t>2026-01-14 01:14:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Premier League International Cup</t>
+          <t>Brasil - Taça de São Paulo de Juniores</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>West Ham Sub21</t>
+          <t>Botafogo RJ Sub20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Borussia Dortmund Sub21</t>
+          <t>São José dos Campos Sub20</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0 x 0</t>
+          <t>1 x 0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -635,12 +635,12 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>https://pt.betsapi.com/r/10512045/West-Ham-U21-vs-Borussia-Dortmund-U21</t>
+          <t>https://pt.betsapi.com/r/11256478/Botafogo-U20-vs-Sao-Jose-SP-U20</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{"": {"home": 21, "away": 21, "total": 42}, "Goals": {"home": 0, "away": 0, "total": 0}, "Corners": {"home": 2, "away": 1, "total": 3}, "Amarelo": {"home": 0, "away": 0, "total": 0}, "Cart\u00e3o Vermelho": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Substitui\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Ataques": {"home": 15, "away": 17, "total": 32}, "Ataques Perigosos": {"home": 9, "away": 10, "total": 19}, "On Target": {"home": 0, "away": 2, "total": 2}, "Ao Lado": {"home": 2, "away": 0, "total": 2}, "% de Posse": {"home": 36, "away": 64, "total": 100}, "Minute": {"home": 19, "away": 19, "total": 19}}</t>
+          <t>{"": {"home": 20, "away": 20, "total": 40}, "Goals": {"home": 1, "away": 0, "total": 1}, "Corners": {"home": 4, "away": 1, "total": 5}, "Yellow Card": {"home": 0, "away": 0, "total": 0}, "Yellow/Red Card": {"home": 0, "away": 0, "total": 0}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Ball Safe": {"home": 5, "away": 4, "total": 9}, "Lesionados": {"home": 0, "away": 1, "total": 1}, "Substitutions": {"home": 0, "away": 1, "total": 1}, "Attacks": {"home": 51, "away": 25, "total": 76}, "Dangerous Attacks": {"home": 37, "away": 11, "total": 48}, "On Target": {"home": 4, "away": 0, "total": 4}, "Ao Lado": {"home": 8, "away": 2, "total": 10}, "% de Posse": {"home": 74, "away": 26, "total": 100}, "Avg. Age": {"home": 19, "away": 18, "total": 37}, "National team players": {"home": 0, "away": 0, "total": 0}, "Youth national team players": {"home": 0, "away": 0, "total": 0}, "Foreigners": {"home": 3, "away": 0, "total": 3}, "Minute": {"home": 30, "away": 30, "total": 30}}</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>

--- a/data/exports/regra_1.xlsx
+++ b/data/exports/regra_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:DK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,496 @@
           <t>ft_stats_json</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>alert_time_hhmm</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>rule_time_limit_min</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>rule_second_half_only</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>rule_follow_ht</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>rule_follow_ft</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>rule_is_active</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>rule_message_template</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>rule_outcome_green_stage</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>rule_outcome_red_stage</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>rule_conditions_json</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>rule_outcome_conditions_json</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>game_id</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>result_minute</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>result_time_hhmm</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Goals (home)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Goals (away)</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Goals (total)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Corners (home)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Corners (away)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Corners (total)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Corners (Half) (home)</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Corners (Half) (away)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Corners (Half) (total)</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Yellow Card (home)</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Yellow Card (away)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Yellow Card (total)</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Yellow/Red Card (home)</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Yellow/Red Card (away)</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Yellow/Red Card (total)</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Red Card (home)</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Red Card (away)</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Red Card (total)</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Penalizações (home)</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Penalizações (away)</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Penalizações (total)</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Ball Safe (home)</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Ball Safe (away)</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Ball Safe (total)</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Substitutions (home)</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Substitutions (away)</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Substitutions (total)</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Attacks (home)</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Attacks (away)</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Attacks (total)</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Dangerous Attacks (home)</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Dangerous Attacks (away)</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Dangerous Attacks (total)</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>alert_On Target (home)</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>alert_On Target (away)</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>alert_On Target (total)</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Ao Lado (home)</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Ao Lado (away)</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Ao Lado (total)</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Minute (home)</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Minute (away)</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Minute (total)</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>alert_ (home)</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>alert_ (away)</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>alert_ (total)</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Lesionados (home)</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Lesionados (away)</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Lesionados (total)</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>alert_% de Posse (home)</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>alert_% de Posse (away)</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>alert_% de Posse (total)</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Avg. Age (home)</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Avg. Age (away)</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Avg. Age (total)</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>alert_National team players (home)</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>alert_National team players (away)</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>alert_National team players (total)</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Youth national team players (home)</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Youth national team players (away)</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Youth national team players (total)</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Foreigners (home)</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Foreigners (away)</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Foreigners (total)</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Foras de Jogo (home)</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Foras de Jogo (away)</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Foras de Jogo (total)</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Tentativas de Golo (home)</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Tentativas de Golo (away)</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Tentativas de Golo (total)</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Defesas (home)</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Defesas (away)</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Defesas (total)</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Remates bloqueados (home)</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Remates bloqueados (away)</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Remates bloqueados (total)</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Faltas (home)</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Faltas (away)</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Faltas (total)</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Total market value (home)</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Total market value (away)</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Total market value (total)</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Avg. market value (home)</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Avg. market value (away)</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Avg. market value (total)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -582,6 +1072,104 @@
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr"/>
+      <c r="DK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +1233,104 @@
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr"/>
+      <c r="DK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +1402,104 @@
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +1571,104 @@
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr"/>
+      <c r="DK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -850,6 +1732,104 @@
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr"/>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="inlineStr"/>
+      <c r="DK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -913,6 +1893,104 @@
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr"/>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="inlineStr"/>
+      <c r="CZ7" t="inlineStr"/>
+      <c r="DA7" t="inlineStr"/>
+      <c r="DB7" t="inlineStr"/>
+      <c r="DC7" t="inlineStr"/>
+      <c r="DD7" t="inlineStr"/>
+      <c r="DE7" t="inlineStr"/>
+      <c r="DF7" t="inlineStr"/>
+      <c r="DG7" t="inlineStr"/>
+      <c r="DH7" t="inlineStr"/>
+      <c r="DI7" t="inlineStr"/>
+      <c r="DJ7" t="inlineStr"/>
+      <c r="DK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -923,7 +2001,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15 ataques total dentro de 30 minutos</t>
+          <t>asas</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -931,30 +2009,30 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2026-01-13 17:41:11</t>
+          <t>2026-01-19 17:16:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>México - Liga MX de Sub19</t>
+          <t>Mauritânia - 2.ª Divisão</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Puebla Sub19</t>
+          <t>FC Ways</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Mazatlán FC Sub19</t>
+          <t>Olympique de Sebkha</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0 x 0</t>
+          <t>0 x 2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -966,16 +2044,1510 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>https://pt.betsapi.com/r/11258856/Puebla-U19-vs-Mazatlan-FC-U19</t>
+          <t>https://pt.betsapi.com/r/11293189/FC-Ways-vs-Olympique-de-Sebkha</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>{"": {"home": 19, "away": 19, "total": 38}, "Goals": {"home": 0, "away": 0, "total": 0}, "Corners": {"home": 1, "away": 0, "total": 1}, "Amarelo": {"home": 0, "away": 0, "total": 0}, "Cart\u00e3o Vermelho": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Substitui\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Ataques": {"home": 4, "away": 10, "total": 14}, "Ataques Perigosos": {"home": 4, "away": 3, "total": 7}, "On Target": {"home": 1, "away": 0, "total": 1}, "% de Posse": {"home": 40, "away": 60, "total": 100}}</t>
+          <t>{"Goals": {"home": 0, "away": 2, "total": 2}, "Corners": {"home": 5, "away": 1, "total": 6}, "Corners (Half)": {"home": 4, "away": 1, "total": 5}, "Yellow Card": {"home": 0, "away": 1, "total": 1}, "Yellow/Red Card": {"home": 0, "away": 0, "total": 0}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Ball Safe": {"home": 14, "away": 18, "total": 32}, "Substitutions": {"home": 1, "away": 0, "total": 1}, "Attacks": {"home": 32, "away": 22, "total": 54}, "Dangerous Attacks": {"home": 35, "away": 28, "total": 63}, "On Target": {"home": 0, "away": 4, "total": 4}, "Ao Lado": {"home": 1, "away": 1, "total": 2}, "Minute": {"home": 51, "away": 51, "total": 51}}</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>30</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>📢 {rule}
+⏱️ Tempo: {minute}' (Máx: {time_limit} min)
+🏟️ {home_team} vs {away_team}
+🥅 Placar: {score}
+🎯 À Baliza: {on_target_home} x {on_target_away}
+🚩 Escanteios: {corners_home} x {corners_away}
+🔗 Abrir no site ({url})</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>[{"stat_key": "corners", "side": "total", "operator": "&gt;=", "value": 1, "group_id": 0}, {"stat_key": "Minute", "side": "total", "operator": "&gt;", "value": 50, "group_id": 0}]</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>11293189</v>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>32</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>32</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>54</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>35</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>28</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>63</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr"/>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="inlineStr"/>
+      <c r="CX8" t="inlineStr"/>
+      <c r="CY8" t="inlineStr"/>
+      <c r="CZ8" t="inlineStr"/>
+      <c r="DA8" t="inlineStr"/>
+      <c r="DB8" t="inlineStr"/>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="inlineStr"/>
+      <c r="DE8" t="inlineStr"/>
+      <c r="DF8" t="inlineStr"/>
+      <c r="DG8" t="inlineStr"/>
+      <c r="DH8" t="inlineStr"/>
+      <c r="DI8" t="inlineStr"/>
+      <c r="DJ8" t="inlineStr"/>
+      <c r="DK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2026-01-19 17:16:46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Burquina Fasso - Taça</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>AS Douanes Ouagadougou</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>AS Police Ouagadougou</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>84</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0 x 0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>https://pt.betsapi.com/r/11293076/AS-Douanes-Ouagadougou-vs-AS-Police-Ouagadougou</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>{"Goals": {"home": 0, "away": 0, "total": 0}, "Corners": {"home": 1, "away": 5, "total": 6}, "Corners (Half)": {"home": 0, "away": 0, "total": 0}, "Yellow Card": {"home": 1, "away": 1, "total": 2}, "Yellow/Red Card": {"home": 0, "away": 0, "total": 0}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Ball Safe": {"home": 27, "away": 30, "total": 57}, "Substitutions": {"home": 3, "away": 3, "total": 6}, "Attacks": {"home": 61, "away": 54, "total": 115}, "Dangerous Attacks": {"home": 68, "away": 56, "total": 124}, "On Target": {"home": 0, "away": 1, "total": 1}, "Ao Lado": {"home": 2, "away": 1, "total": 3}, "Minute": {"home": 84, "away": 84, "total": 84}}</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>30</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>📢 {rule}
+⏱️ Tempo: {minute}' (Máx: {time_limit} min)
+🏟️ {home_team} vs {away_team}
+🥅 Placar: {score}
+🎯 À Baliza: {on_target_home} x {on_target_away}
+🚩 Escanteios: {corners_home} x {corners_away}
+🔗 Abrir no site ({url})</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>[{"stat_key": "corners", "side": "total", "operator": "&gt;=", "value": 1, "group_id": 0}, {"stat_key": "Minute", "side": "total", "operator": "&gt;", "value": 50, "group_id": 0}]</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>11293076</v>
+      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>30</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>57</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>61</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>54</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>115</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>68</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>56</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>124</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>84</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>84</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>84</v>
+      </c>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr"/>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr"/>
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="inlineStr"/>
+      <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="inlineStr"/>
+      <c r="CZ9" t="inlineStr"/>
+      <c r="DA9" t="inlineStr"/>
+      <c r="DB9" t="inlineStr"/>
+      <c r="DC9" t="inlineStr"/>
+      <c r="DD9" t="inlineStr"/>
+      <c r="DE9" t="inlineStr"/>
+      <c r="DF9" t="inlineStr"/>
+      <c r="DG9" t="inlineStr"/>
+      <c r="DH9" t="inlineStr"/>
+      <c r="DI9" t="inlineStr"/>
+      <c r="DJ9" t="inlineStr"/>
+      <c r="DK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2026-01-19 17:16:49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Portugal - Liga de Sub23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Leixões SC Sub23</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SC Braga Sub23</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>84</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1 x 1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>https://pt.betsapi.com/r/11179090/Leixoes-U23-vs-Braga-U23</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>{"": {"home": 23, "away": 23, "total": 46}, "Goals": {"home": 1, "away": 1, "total": 2}, "Corners": {"home": 2, "away": 0, "total": 2}, "Corners (Half)": {"home": 1, "away": 0, "total": 1}, "Yellow Card": {"home": 3, "away": 0, "total": 3}, "Yellow/Red Card": {"home": 0, "away": 0, "total": 0}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Ball Safe": {"home": 38, "away": 31, "total": 69}, "Lesionados": {"home": 1, "away": 1, "total": 2}, "Substitutions": {"home": 2, "away": 5, "total": 7}, "Attacks": {"home": 72, "away": 74, "total": 146}, "Dangerous Attacks": {"home": 39, "away": 31, "total": 70}, "On Target": {"home": 4, "away": 3, "total": 7}, "Ao Lado": {"home": 6, "away": 3, "total": 9}, "% de Posse": {"home": 48, "away": 52, "total": 100}, "Avg. Age": {"home": 21, "away": 19, "total": 40}, "National team players": {"home": 0, "away": 0, "total": 0}, "Youth national team players": {"home": 1, "away": 14, "total": 15}, "Foreigners": {"home": 14, "away": 8, "total": 22}, "Minute": {"home": 85, "away": 85, "total": 85}}</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>30</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>📢 {rule}
+⏱️ Tempo: {minute}' (Máx: {time_limit} min)
+🏟️ {home_team} vs {away_team}
+🥅 Placar: {score}
+🎯 À Baliza: {on_target_home} x {on_target_away}
+🚩 Escanteios: {corners_home} x {corners_away}
+🔗 Abrir no site ({url})</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>[{"stat_key": "corners", "side": "total", "operator": "&gt;=", "value": 1, "group_id": 0}, {"stat_key": "Minute", "side": "total", "operator": "&gt;", "value": 50, "group_id": 0}]</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>11179090</v>
+      </c>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>38</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>31</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>69</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>72</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>74</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>146</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>39</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>31</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>70</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>85</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>85</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>85</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>23</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>23</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>46</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>48</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>52</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>100</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>19</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>40</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>14</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>15</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>14</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>8</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>22</v>
+      </c>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr"/>
+      <c r="CW10" t="inlineStr"/>
+      <c r="CX10" t="inlineStr"/>
+      <c r="CY10" t="inlineStr"/>
+      <c r="CZ10" t="inlineStr"/>
+      <c r="DA10" t="inlineStr"/>
+      <c r="DB10" t="inlineStr"/>
+      <c r="DC10" t="inlineStr"/>
+      <c r="DD10" t="inlineStr"/>
+      <c r="DE10" t="inlineStr"/>
+      <c r="DF10" t="inlineStr"/>
+      <c r="DG10" t="inlineStr"/>
+      <c r="DH10" t="inlineStr"/>
+      <c r="DI10" t="inlineStr"/>
+      <c r="DJ10" t="inlineStr"/>
+      <c r="DK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2026-01-19 17:16:52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Catar - Taça Stars</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Al-Arabi Doha</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Al Sadd</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>88</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>5 x 0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>https://pt.betsapi.com/r/10570079/Al-Arabi-Doha-vs-Al-Sadd-SC</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>{"Goals": {"home": 5, "away": 0, "total": 5}, "Corners": {"home": 3, "away": 3, "total": 6}, "Corners (Half)": {"home": 2, "away": 0, "total": 2}, "Yellow Card": {"home": 0, "away": 2, "total": 2}, "Yellow/Red Card": {"home": 0, "away": 0, "total": 0}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Foras de Jogo": {"home": 3, "away": 1, "total": 4}, "Tentativas de Golo": {"home": 7, "away": 2, "total": 9}, "Defesas": {"home": 1, "away": 1, "total": 2}, "Remates bloqueados": {"home": 1, "away": 0, "total": 1}, "Faltas": {"home": 7, "away": 2, "total": 9}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Ball Safe": {"home": 47, "away": 50, "total": 97}, "Substitutions": {"home": 5, "away": 5, "total": 10}, "Attacks": {"home": 130, "away": 66, "total": 196}, "Dangerous Attacks": {"home": 85, "away": 35, "total": 120}, "On Target": {"home": 6, "away": 2, "total": 8}, "Ao Lado": {"home": 4, "away": 2, "total": 6}, "% de Posse": {"home": 61, "away": 39, "total": 100}, "Total market value": {"home": 28, "away": 63, "total": 91}, "Avg. market value": {"home": 1, "away": 2, "total": 3}, "Avg. Age": {"home": 27, "away": 28, "total": 55}, "National team players": {"home": 6, "away": 12, "total": 18}, "Youth national team players": {"home": 6, "away": 2, "total": 8}, "Foreigners": {"home": 13, "away": 10, "total": 23}, "Minute": {"home": 89, "away": 89, "total": 89}}</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>17:16</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>30</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>📢 {rule}
+⏱️ Tempo: {minute}' (Máx: {time_limit} min)
+🏟️ {home_team} vs {away_team}
+🥅 Placar: {score}
+🎯 À Baliza: {on_target_home} x {on_target_away}
+🚩 Escanteios: {corners_home} x {corners_away}
+🔗 Abrir no site ({url})</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>[{"stat_key": "corners", "side": "total", "operator": "&gt;=", "value": 1, "group_id": 0}, {"stat_key": "Minute", "side": "total", "operator": "&gt;", "value": 50, "group_id": 0}]</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>10570079</v>
+      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>47</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>50</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>97</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>130</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>66</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>196</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>85</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>35</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>120</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>89</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>89</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>89</v>
+      </c>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="n">
+        <v>61</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>39</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>100</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>27</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>28</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>55</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>6</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>18</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>6</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>8</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>13</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>7</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>9</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>7</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>28</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>63</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>91</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>asas</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2026-01-19 17:20:52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Serra Leoa - Premier League</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Abacha City</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mighty Blackpool</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>45</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0 x 0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>https://pt.betsapi.com/r/11291274/Abacha-City-vs-Mighty-Blackpool</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>{"Goals": {"home": 0, "away": 0, "total": 0}, "Corners": {"home": 3, "away": 0, "total": 3}, "Corners (Half)": {"home": 3, "away": 0, "total": 3}, "Yellow Card": {"home": 0, "away": 0, "total": 0}, "Yellow/Red Card": {"home": 0, "away": 0, "total": 0}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Ball Safe": {"home": 36, "away": 34, "total": 70}, "Lesionados": {"home": 3, "away": 2, "total": 5}, "Substitutions": {"home": 0, "away": 0, "total": 0}, "Attacks": {"home": 75, "away": 72, "total": 147}, "Dangerous Attacks": {"home": 41, "away": 34, "total": 75}, "On Target": {"home": 1, "away": 1, "total": 2}, "Ao Lado": {"home": 0, "away": 5, "total": 5}, "Minute": {"home": 45, "away": 45, "total": 45}}</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>17:20</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>30</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>📢 {rule}
+⏱️ Tempo: {minute}' (Máx: {time_limit} min)
+🏟️ {home_team} vs {away_team}
+🥅 Placar: {score}
+🎯 À Baliza: {on_target_home} x {on_target_away}
+🚩 Escanteios: {corners_home} x {corners_away}
+🔗 Abrir no site ({url})</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>[{"stat_key": "corners", "side": "total", "operator": "&gt;=", "value": 1, "group_id": 0}, {"stat_key": "Minute", "side": "total", "operator": "&lt;", "value": 50, "group_id": 0}]</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>11291274</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>70</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>75</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>72</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>147</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>75</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>45</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>45</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>45</v>
+      </c>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>5</v>
+      </c>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr"/>
+      <c r="CJ12" t="inlineStr"/>
+      <c r="CK12" t="inlineStr"/>
+      <c r="CL12" t="inlineStr"/>
+      <c r="CM12" t="inlineStr"/>
+      <c r="CN12" t="inlineStr"/>
+      <c r="CO12" t="inlineStr"/>
+      <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr"/>
+      <c r="CR12" t="inlineStr"/>
+      <c r="CS12" t="inlineStr"/>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr"/>
+      <c r="CW12" t="inlineStr"/>
+      <c r="CX12" t="inlineStr"/>
+      <c r="CY12" t="inlineStr"/>
+      <c r="CZ12" t="inlineStr"/>
+      <c r="DA12" t="inlineStr"/>
+      <c r="DB12" t="inlineStr"/>
+      <c r="DC12" t="inlineStr"/>
+      <c r="DD12" t="inlineStr"/>
+      <c r="DE12" t="inlineStr"/>
+      <c r="DF12" t="inlineStr"/>
+      <c r="DG12" t="inlineStr"/>
+      <c r="DH12" t="inlineStr"/>
+      <c r="DI12" t="inlineStr"/>
+      <c r="DJ12" t="inlineStr"/>
+      <c r="DK12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/exports/regra_1.xlsx
+++ b/data/exports/regra_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK12"/>
+  <dimension ref="A1:EF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,6 +1009,111 @@
           <t>alert_Avg. market value (total)</t>
         </is>
       </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>rule_outcome_green_minute</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>rule_outcome_red_minute</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>rule_outcome_red_if_no_green</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>alert_xG (home)</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>alert_xG (away)</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>alert_xG (total)</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Key Passes (home)</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Key Passes (away)</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Key Passes (total)</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Passing Accuracy (home)</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Passing Accuracy (away)</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Passing Accuracy (total)</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Crosses (home)</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Crosses (away)</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Crosses (total)</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Crossing Accuracy (home)</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Crossing Accuracy (away)</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Crossing Accuracy (total)</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Club members (home)</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Club members (away)</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>alert_Club members (total)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1019,38 +1124,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1 chute</t>
+          <t>adsdas</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-01-14 01:14:37</t>
+          <t>2026-01-19 20:31:17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>México - Liga MX</t>
+          <t>Espanha - La Liga</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Sevilha</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0 x 1</t>
+          <t>1 x 0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1062,93 +1167,231 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>https://pt.betsapi.com/r/11140015/Necaxa-vs-Monterrey</t>
+          <t>https://pt.betsapi.com/r/10202737/Elche-vs-Sevilla</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"Goals": {"home": 0, "away": 1, "total": 1}, "Corners": {"home": 0, "away": 0, "total": 0}, "Yellow Card": {"home": 0, "away": 0, "total": 0}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Substitutions": {"home": 0, "away": 0, "total": 0}, "On Target": {"home": 0, "away": 1, "total": 1}, "Ao Lado": {"home": 0, "away": 3, "total": 3}, "% de Posse": {"home": 38, "away": 62, "total": 100}, "Key Passes": {"home": 0, "away": 1, "total": 1}, "Passing Accuracy": {"home": 82, "away": 91, "total": 173}, "Crosses": {"home": 1, "away": 2, "total": 3}, "Crossing Accuracy": {"home": 0, "away": 0, "total": 0}, "Total market value": {"home": 41, "away": 68, "total": 109}, "Avg. market value": {"home": 1, "away": 2, "total": 3}, "Avg. Age": {"home": 25, "away": 28, "total": 53}, "National team players": {"home": 1, "away": 3, "total": 4}, "Youth national team players": {"home": 1, "away": 2, "total": 3}, "Foreigners": {"home": 10, "away": 8, "total": 18}, "Minute": {"home": 14, "away": 14, "total": 14}}</t>
+          <t>{"Goals": {"home": 1, "away": 0, "total": 1}, "Corners": {"home": 2, "away": 2, "total": 4}, "Yellow Card": {"home": 1, "away": 0, "total": 1}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Substitutions": {"home": 0, "away": 0, "total": 0}, "Attacks": {"home": 31, "away": 28, "total": 59}, "Dangerous Attacks": {"home": 13, "away": 16, "total": 29}, "On Target": {"home": 1, "away": 1, "total": 2}, "Ao Lado": {"home": 0, "away": 5, "total": 5}, "% de Posse": {"home": 56, "away": 44, "total": 100}, "xG": {"home": 0, "away": 0, "total": 0}, "Key Passes": {"home": 1, "away": 6, "total": 7}, "Passing Accuracy": {"home": 77, "away": 81, "total": 158}, "Crosses": {"home": 3, "away": 4, "total": 7}, "Crossing Accuracy": {"home": 0, "away": 25, "total": 25}, "Total market value": {"home": 101, "away": 131, "total": 232}, "Avg. market value": {"home": 3, "away": 4, "total": 7}, "Avg. Age": {"home": 26, "away": 27, "total": 53}, "National team players": {"home": 1, "away": 9, "total": 10}, "Youth national team players": {"home": 5, "away": 4, "total": 9}, "Foreigners": {"home": 10, "away": 16, "total": 26}, "Club members": {"home": 12, "away": 39, "total": 51}, "Minute": {"home": 29, "away": 29, "total": 29}}</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>20:31</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>90</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>📢 {rule}
+⏱️ Tempo: {minute}'
+🏟️ {home_team} vs {away_team}
+🥅 Placar: {score}
+🎯 À Baliza: {on_target_home} x {on_target_away}
+🚩 Escanteios: {corners_home} x {corners_away}
+🔗 Abrir no site ({url})</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>[{"stat_key": "on-target", "side": "total", "operator": "&gt;=", "value": 2, "group_id": 0}, {"stat_key": "Minute", "side": "total", "operator": "==", "value": 29, "group_id": 0}]</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[{"stat_key": "corners", "side": "total", "operator": "&gt;=", "value": 1, "outcome_type": "green"}]</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>10202737</v>
+      </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>4</v>
+      </c>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
-      <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr"/>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>31</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>28</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>59</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>29</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>29</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>29</v>
+      </c>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="inlineStr"/>
-      <c r="CB2" t="inlineStr"/>
-      <c r="CC2" t="inlineStr"/>
-      <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr"/>
-      <c r="CF2" t="inlineStr"/>
-      <c r="CG2" t="inlineStr"/>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="inlineStr"/>
-      <c r="CK2" t="inlineStr"/>
-      <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="inlineStr"/>
-      <c r="CN2" t="inlineStr"/>
-      <c r="CO2" t="inlineStr"/>
-      <c r="CP2" t="inlineStr"/>
+      <c r="CB2" t="n">
+        <v>56</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>44</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>100</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>26</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>27</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>53</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>9</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>9</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>10</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>16</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>26</v>
+      </c>
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr"/>
       <c r="CS2" t="inlineStr"/>
@@ -1164,12 +1407,83 @@
       <c r="DC2" t="inlineStr"/>
       <c r="DD2" t="inlineStr"/>
       <c r="DE2" t="inlineStr"/>
-      <c r="DF2" t="inlineStr"/>
-      <c r="DG2" t="inlineStr"/>
-      <c r="DH2" t="inlineStr"/>
-      <c r="DI2" t="inlineStr"/>
-      <c r="DJ2" t="inlineStr"/>
-      <c r="DK2" t="inlineStr"/>
+      <c r="DF2" t="n">
+        <v>101</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>131</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>232</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>7</v>
+      </c>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr"/>
+      <c r="DN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>6</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>7</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>77</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>158</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>4</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>25</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>25</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>12</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>39</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1180,38 +1494,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1 chute</t>
+          <t>adsdas</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2026-01-14 01:14:48</t>
+          <t>2026-01-19 20:31:20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brasil - Taça de São Paulo de Juniores</t>
+          <t>Islândia - Taça Pré-época</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Botafogo RJ Sub20</t>
+          <t>Fjolnir</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>São José dos Campos Sub20</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1 x 0</t>
+          <t>1 x 2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1223,81 +1537,197 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>https://pt.betsapi.com/r/11256478/Botafogo-U20-vs-Sao-Jose-SP-U20</t>
+          <t>https://pt.betsapi.com/r/11290686/Fjolnir-vs-Vikingur-Reykjavik</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{"": {"home": 20, "away": 20, "total": 40}, "Goals": {"home": 1, "away": 0, "total": 1}, "Corners": {"home": 4, "away": 1, "total": 5}, "Yellow Card": {"home": 0, "away": 0, "total": 0}, "Yellow/Red Card": {"home": 0, "away": 0, "total": 0}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Ball Safe": {"home": 5, "away": 4, "total": 9}, "Lesionados": {"home": 0, "away": 1, "total": 1}, "Substitutions": {"home": 0, "away": 1, "total": 1}, "Attacks": {"home": 51, "away": 25, "total": 76}, "Dangerous Attacks": {"home": 37, "away": 11, "total": 48}, "On Target": {"home": 4, "away": 0, "total": 4}, "Ao Lado": {"home": 8, "away": 2, "total": 10}, "% de Posse": {"home": 74, "away": 26, "total": 100}, "Avg. Age": {"home": 19, "away": 18, "total": 37}, "National team players": {"home": 0, "away": 0, "total": 0}, "Youth national team players": {"home": 0, "away": 0, "total": 0}, "Foreigners": {"home": 3, "away": 0, "total": 3}, "Minute": {"home": 30, "away": 30, "total": 30}}</t>
+          <t>{"Goals": {"home": 1, "away": 2, "total": 3}, "Corners": {"home": 1, "away": 1, "total": 2}, "Yellow Card": {"home": 0, "away": 0, "total": 0}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Substitutions": {"home": 0, "away": 0, "total": 0}, "Attacks": {"home": 18, "away": 21, "total": 39}, "Dangerous Attacks": {"home": 6, "away": 18, "total": 24}, "On Target": {"home": 1, "away": 4, "total": 5}, "Ao Lado": {"home": 1, "away": 1, "total": 2}, "% de Posse": {"home": 43, "away": 57, "total": 100}, "Minute": {"home": 29, "away": 29, "total": 29}}</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>20:31</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>90</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>📢 {rule}
+⏱️ Tempo: {minute}'
+🏟️ {home_team} vs {away_team}
+🥅 Placar: {score}
+🎯 À Baliza: {on_target_home} x {on_target_away}
+🚩 Escanteios: {corners_home} x {corners_away}
+🔗 Abrir no site ({url})</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>HT</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>[{"stat_key": "on-target", "side": "total", "operator": "&gt;=", "value": 2, "group_id": 0}, {"stat_key": "Minute", "side": "total", "operator": "==", "value": 29, "group_id": 0}]</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>[{"stat_key": "corners", "side": "total", "operator": "&gt;=", "value": 1, "outcome_type": "green"}]</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>11290686</t>
+        </is>
+      </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
-      <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr"/>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>18</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>39</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>18</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>24</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>29</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>29</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>29</v>
+      </c>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="inlineStr"/>
       <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="inlineStr"/>
-      <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="inlineStr"/>
+      <c r="CB3" t="n">
+        <v>43</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>57</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>100</v>
+      </c>
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="inlineStr"/>
       <c r="CG3" t="inlineStr"/>
@@ -1331,6 +1761,29 @@
       <c r="DI3" t="inlineStr"/>
       <c r="DJ3" t="inlineStr"/>
       <c r="DK3" t="inlineStr"/>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr"/>
+      <c r="DQ3" t="inlineStr"/>
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr"/>
+      <c r="DV3" t="inlineStr"/>
+      <c r="DW3" t="inlineStr"/>
+      <c r="DX3" t="inlineStr"/>
+      <c r="DY3" t="inlineStr"/>
+      <c r="DZ3" t="inlineStr"/>
+      <c r="EA3" t="inlineStr"/>
+      <c r="EB3" t="inlineStr"/>
+      <c r="EC3" t="inlineStr"/>
+      <c r="ED3" t="inlineStr"/>
+      <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1500,6 +1953,27 @@
       <c r="DI4" t="inlineStr"/>
       <c r="DJ4" t="inlineStr"/>
       <c r="DK4" t="inlineStr"/>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr"/>
+      <c r="DQ4" t="inlineStr"/>
+      <c r="DR4" t="inlineStr"/>
+      <c r="DS4" t="inlineStr"/>
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="inlineStr"/>
+      <c r="DV4" t="inlineStr"/>
+      <c r="DW4" t="inlineStr"/>
+      <c r="DX4" t="inlineStr"/>
+      <c r="DY4" t="inlineStr"/>
+      <c r="DZ4" t="inlineStr"/>
+      <c r="EA4" t="inlineStr"/>
+      <c r="EB4" t="inlineStr"/>
+      <c r="EC4" t="inlineStr"/>
+      <c r="ED4" t="inlineStr"/>
+      <c r="EE4" t="inlineStr"/>
+      <c r="EF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1669,6 +2143,27 @@
       <c r="DI5" t="inlineStr"/>
       <c r="DJ5" t="inlineStr"/>
       <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr"/>
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr"/>
+      <c r="DQ5" t="inlineStr"/>
+      <c r="DR5" t="inlineStr"/>
+      <c r="DS5" t="inlineStr"/>
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="inlineStr"/>
+      <c r="DV5" t="inlineStr"/>
+      <c r="DW5" t="inlineStr"/>
+      <c r="DX5" t="inlineStr"/>
+      <c r="DY5" t="inlineStr"/>
+      <c r="DZ5" t="inlineStr"/>
+      <c r="EA5" t="inlineStr"/>
+      <c r="EB5" t="inlineStr"/>
+      <c r="EC5" t="inlineStr"/>
+      <c r="ED5" t="inlineStr"/>
+      <c r="EE5" t="inlineStr"/>
+      <c r="EF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1830,6 +2325,27 @@
       <c r="DI6" t="inlineStr"/>
       <c r="DJ6" t="inlineStr"/>
       <c r="DK6" t="inlineStr"/>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr"/>
+      <c r="DQ6" t="inlineStr"/>
+      <c r="DR6" t="inlineStr"/>
+      <c r="DS6" t="inlineStr"/>
+      <c r="DT6" t="inlineStr"/>
+      <c r="DU6" t="inlineStr"/>
+      <c r="DV6" t="inlineStr"/>
+      <c r="DW6" t="inlineStr"/>
+      <c r="DX6" t="inlineStr"/>
+      <c r="DY6" t="inlineStr"/>
+      <c r="DZ6" t="inlineStr"/>
+      <c r="EA6" t="inlineStr"/>
+      <c r="EB6" t="inlineStr"/>
+      <c r="EC6" t="inlineStr"/>
+      <c r="ED6" t="inlineStr"/>
+      <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1991,6 +2507,27 @@
       <c r="DI7" t="inlineStr"/>
       <c r="DJ7" t="inlineStr"/>
       <c r="DK7" t="inlineStr"/>
+      <c r="DL7" t="inlineStr"/>
+      <c r="DM7" t="inlineStr"/>
+      <c r="DN7" t="inlineStr"/>
+      <c r="DO7" t="inlineStr"/>
+      <c r="DP7" t="inlineStr"/>
+      <c r="DQ7" t="inlineStr"/>
+      <c r="DR7" t="inlineStr"/>
+      <c r="DS7" t="inlineStr"/>
+      <c r="DT7" t="inlineStr"/>
+      <c r="DU7" t="inlineStr"/>
+      <c r="DV7" t="inlineStr"/>
+      <c r="DW7" t="inlineStr"/>
+      <c r="DX7" t="inlineStr"/>
+      <c r="DY7" t="inlineStr"/>
+      <c r="DZ7" t="inlineStr"/>
+      <c r="EA7" t="inlineStr"/>
+      <c r="EB7" t="inlineStr"/>
+      <c r="EC7" t="inlineStr"/>
+      <c r="ED7" t="inlineStr"/>
+      <c r="EE7" t="inlineStr"/>
+      <c r="EF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2278,6 +2815,27 @@
       <c r="DI8" t="inlineStr"/>
       <c r="DJ8" t="inlineStr"/>
       <c r="DK8" t="inlineStr"/>
+      <c r="DL8" t="inlineStr"/>
+      <c r="DM8" t="inlineStr"/>
+      <c r="DN8" t="inlineStr"/>
+      <c r="DO8" t="inlineStr"/>
+      <c r="DP8" t="inlineStr"/>
+      <c r="DQ8" t="inlineStr"/>
+      <c r="DR8" t="inlineStr"/>
+      <c r="DS8" t="inlineStr"/>
+      <c r="DT8" t="inlineStr"/>
+      <c r="DU8" t="inlineStr"/>
+      <c r="DV8" t="inlineStr"/>
+      <c r="DW8" t="inlineStr"/>
+      <c r="DX8" t="inlineStr"/>
+      <c r="DY8" t="inlineStr"/>
+      <c r="DZ8" t="inlineStr"/>
+      <c r="EA8" t="inlineStr"/>
+      <c r="EB8" t="inlineStr"/>
+      <c r="EC8" t="inlineStr"/>
+      <c r="ED8" t="inlineStr"/>
+      <c r="EE8" t="inlineStr"/>
+      <c r="EF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2565,6 +3123,27 @@
       <c r="DI9" t="inlineStr"/>
       <c r="DJ9" t="inlineStr"/>
       <c r="DK9" t="inlineStr"/>
+      <c r="DL9" t="inlineStr"/>
+      <c r="DM9" t="inlineStr"/>
+      <c r="DN9" t="inlineStr"/>
+      <c r="DO9" t="inlineStr"/>
+      <c r="DP9" t="inlineStr"/>
+      <c r="DQ9" t="inlineStr"/>
+      <c r="DR9" t="inlineStr"/>
+      <c r="DS9" t="inlineStr"/>
+      <c r="DT9" t="inlineStr"/>
+      <c r="DU9" t="inlineStr"/>
+      <c r="DV9" t="inlineStr"/>
+      <c r="DW9" t="inlineStr"/>
+      <c r="DX9" t="inlineStr"/>
+      <c r="DY9" t="inlineStr"/>
+      <c r="DZ9" t="inlineStr"/>
+      <c r="EA9" t="inlineStr"/>
+      <c r="EB9" t="inlineStr"/>
+      <c r="EC9" t="inlineStr"/>
+      <c r="ED9" t="inlineStr"/>
+      <c r="EE9" t="inlineStr"/>
+      <c r="EF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2894,6 +3473,27 @@
       <c r="DI10" t="inlineStr"/>
       <c r="DJ10" t="inlineStr"/>
       <c r="DK10" t="inlineStr"/>
+      <c r="DL10" t="inlineStr"/>
+      <c r="DM10" t="inlineStr"/>
+      <c r="DN10" t="inlineStr"/>
+      <c r="DO10" t="inlineStr"/>
+      <c r="DP10" t="inlineStr"/>
+      <c r="DQ10" t="inlineStr"/>
+      <c r="DR10" t="inlineStr"/>
+      <c r="DS10" t="inlineStr"/>
+      <c r="DT10" t="inlineStr"/>
+      <c r="DU10" t="inlineStr"/>
+      <c r="DV10" t="inlineStr"/>
+      <c r="DW10" t="inlineStr"/>
+      <c r="DX10" t="inlineStr"/>
+      <c r="DY10" t="inlineStr"/>
+      <c r="DZ10" t="inlineStr"/>
+      <c r="EA10" t="inlineStr"/>
+      <c r="EB10" t="inlineStr"/>
+      <c r="EC10" t="inlineStr"/>
+      <c r="ED10" t="inlineStr"/>
+      <c r="EE10" t="inlineStr"/>
+      <c r="EF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3253,6 +3853,27 @@
       <c r="DK11" t="n">
         <v>3</v>
       </c>
+      <c r="DL11" t="inlineStr"/>
+      <c r="DM11" t="inlineStr"/>
+      <c r="DN11" t="inlineStr"/>
+      <c r="DO11" t="inlineStr"/>
+      <c r="DP11" t="inlineStr"/>
+      <c r="DQ11" t="inlineStr"/>
+      <c r="DR11" t="inlineStr"/>
+      <c r="DS11" t="inlineStr"/>
+      <c r="DT11" t="inlineStr"/>
+      <c r="DU11" t="inlineStr"/>
+      <c r="DV11" t="inlineStr"/>
+      <c r="DW11" t="inlineStr"/>
+      <c r="DX11" t="inlineStr"/>
+      <c r="DY11" t="inlineStr"/>
+      <c r="DZ11" t="inlineStr"/>
+      <c r="EA11" t="inlineStr"/>
+      <c r="EB11" t="inlineStr"/>
+      <c r="EC11" t="inlineStr"/>
+      <c r="ED11" t="inlineStr"/>
+      <c r="EE11" t="inlineStr"/>
+      <c r="EF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3367,10 +3988,8 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>11291274</t>
-        </is>
+      <c r="AC12" t="n">
+        <v>11291274</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
@@ -3548,6 +4167,27 @@
       <c r="DI12" t="inlineStr"/>
       <c r="DJ12" t="inlineStr"/>
       <c r="DK12" t="inlineStr"/>
+      <c r="DL12" t="inlineStr"/>
+      <c r="DM12" t="inlineStr"/>
+      <c r="DN12" t="inlineStr"/>
+      <c r="DO12" t="inlineStr"/>
+      <c r="DP12" t="inlineStr"/>
+      <c r="DQ12" t="inlineStr"/>
+      <c r="DR12" t="inlineStr"/>
+      <c r="DS12" t="inlineStr"/>
+      <c r="DT12" t="inlineStr"/>
+      <c r="DU12" t="inlineStr"/>
+      <c r="DV12" t="inlineStr"/>
+      <c r="DW12" t="inlineStr"/>
+      <c r="DX12" t="inlineStr"/>
+      <c r="DY12" t="inlineStr"/>
+      <c r="DZ12" t="inlineStr"/>
+      <c r="EA12" t="inlineStr"/>
+      <c r="EB12" t="inlineStr"/>
+      <c r="EC12" t="inlineStr"/>
+      <c r="ED12" t="inlineStr"/>
+      <c r="EE12" t="inlineStr"/>
+      <c r="EF12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/exports/regra_1.xlsx
+++ b/data/exports/regra_1.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>adsdas</t>
+          <t>4 CHUTE GOL ATÉ 20 MIN</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1132,30 +1132,30 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-01-19 20:31:17</t>
+          <t>2026-01-19 21:00:14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Espanha - La Liga</t>
+          <t>Albânia - Campeonato</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>FC Dinamo City</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sevilha</t>
+          <t>Vllaznia Shkoder</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1 x 0</t>
+          <t>0 x 2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1167,19 +1167,19 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>https://pt.betsapi.com/r/10202737/Elche-vs-Sevilla</t>
+          <t>https://pt.betsapi.com/r/10328281/FC-Dinamo-City-vs-Vllaznia-Shkoder</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{"Goals": {"home": 1, "away": 0, "total": 1}, "Corners": {"home": 2, "away": 2, "total": 4}, "Yellow Card": {"home": 1, "away": 0, "total": 1}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Substitutions": {"home": 0, "away": 0, "total": 0}, "Attacks": {"home": 31, "away": 28, "total": 59}, "Dangerous Attacks": {"home": 13, "away": 16, "total": 29}, "On Target": {"home": 1, "away": 1, "total": 2}, "Ao Lado": {"home": 0, "away": 5, "total": 5}, "% de Posse": {"home": 56, "away": 44, "total": 100}, "xG": {"home": 0, "away": 0, "total": 0}, "Key Passes": {"home": 1, "away": 6, "total": 7}, "Passing Accuracy": {"home": 77, "away": 81, "total": 158}, "Crosses": {"home": 3, "away": 4, "total": 7}, "Crossing Accuracy": {"home": 0, "away": 25, "total": 25}, "Total market value": {"home": 101, "away": 131, "total": 232}, "Avg. market value": {"home": 3, "away": 4, "total": 7}, "Avg. Age": {"home": 26, "away": 27, "total": 53}, "National team players": {"home": 1, "away": 9, "total": 10}, "Youth national team players": {"home": 5, "away": 4, "total": 9}, "Foreigners": {"home": 10, "away": 16, "total": 26}, "Club members": {"home": 12, "away": 39, "total": 51}, "Minute": {"home": 29, "away": 29, "total": 29}}</t>
+          <t>{"Goals": {"home": 0, "away": 2, "total": 2}, "Corners": {"home": 0, "away": 3, "total": 3}, "Corners (Half)": {"home": 0, "away": 1, "total": 1}, "Yellow Card": {"home": 1, "away": 1, "total": 2}, "Yellow/Red Card": {"home": 0, "away": 0, "total": 0}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 1, "total": 1}, "Ball Safe": {"home": 68, "away": 47, "total": 115}, "Lesionados": {"home": 1, "away": 0, "total": 1}, "Substitutions": {"home": 5, "away": 2, "total": 7}, "Attacks": {"home": 163, "away": 91, "total": 254}, "Dangerous Attacks": {"home": 77, "away": 65, "total": 142}, "On Target": {"home": 1, "away": 4, "total": 5}, "Ao Lado": {"home": 2, "away": 5, "total": 7}, "% de Posse": {"home": 62, "away": 38, "total": 100}, "Total market value": {"home": 5, "away": 5, "total": 10}, "Avg. market value": {"home": 206, "away": 214, "total": 420}, "Avg. Age": {"home": 26, "away": 26, "total": 52}, "National team players": {"home": 1, "away": 1, "total": 2}, "Youth national team players": {"home": 1, "away": 1, "total": 2}, "Foreigners": {"home": 11, "away": 9, "total": 20}, "Minute": {"home": 7, "away": 7, "total": 7}}</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>20:31</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -1220,138 +1220,162 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>[{"stat_key": "on-target", "side": "total", "operator": "&gt;=", "value": 2, "group_id": 0}, {"stat_key": "Minute", "side": "total", "operator": "==", "value": 29, "group_id": 0}]</t>
+          <t>[{"stat_key": "Minute", "side": "total", "operator": "&lt;=", "value": 20, "group_id": 0}, {"stat_key": "on-target", "side": "total", "operator": "&gt;=", "value": 4, "group_id": 0}]</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>[{"stat_key": "corners", "side": "total", "operator": "&gt;=", "value": 1, "outcome_type": "green"}]</t>
+          <t>[{"stat_key": "goals", "side": "total", "operator": "&gt;=", "value": 1, "outcome_type": "green"}]</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>10202737</v>
+        <v>10328281</v>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>2</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>68</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>47</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>115</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE2" t="n">
         <v>2</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="BF2" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>163</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>91</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>254</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>77</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>65</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>142</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="n">
         <v>4</v>
       </c>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>31</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>28</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>59</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>16</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>29</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
       <c r="BO2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP2" t="n">
         <v>2</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
       </c>
       <c r="BQ2" t="n">
         <v>5</v>
       </c>
       <c r="BR2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BS2" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="BT2" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="BU2" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="inlineStr"/>
-      <c r="BY2" t="inlineStr"/>
-      <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr"/>
+      <c r="BY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
       <c r="CB2" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="CC2" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="CD2" t="n">
         <v>100</v>
@@ -1360,37 +1384,37 @@
         <v>26</v>
       </c>
       <c r="CF2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CG2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="CH2" t="n">
         <v>1</v>
       </c>
       <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>11</v>
+      </c>
+      <c r="CO2" t="n">
         <v>9</v>
       </c>
-      <c r="CJ2" t="n">
-        <v>10</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>5</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>4</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>9</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>10</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>16</v>
-      </c>
       <c r="CP2" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr"/>
@@ -1408,27 +1432,31 @@
       <c r="DD2" t="inlineStr"/>
       <c r="DE2" t="inlineStr"/>
       <c r="DF2" t="n">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="DG2" t="n">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="DH2" t="n">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="DI2" t="n">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="DJ2" t="n">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="DK2" t="n">
-        <v>7</v>
-      </c>
-      <c r="DL2" t="inlineStr"/>
-      <c r="DM2" t="inlineStr"/>
+        <v>420</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>45</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>45</v>
+      </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1494,7 +1522,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>adsdas</t>
+          <t>4 CHUTE GOL ATÉ 20 MIN</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1502,30 +1530,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2026-01-19 20:31:20</t>
+          <t>2026-01-19 21:00:17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Islândia - Taça Pré-época</t>
+          <t>Inglaterra - Premier League 2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fjolnir</t>
+          <t>West Ham Sub21</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik</t>
+          <t>Chelsea Sub21</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1 x 2</t>
+          <t>5 x 0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1537,19 +1565,19 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>https://pt.betsapi.com/r/11290686/Fjolnir-vs-Vikingur-Reykjavik</t>
+          <t>https://pt.betsapi.com/r/11224343/West-Ham-U21-vs-Chelsea-U21</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{"Goals": {"home": 1, "away": 2, "total": 3}, "Corners": {"home": 1, "away": 1, "total": 2}, "Yellow Card": {"home": 0, "away": 0, "total": 0}, "Red Card": {"home": 0, "away": 0, "total": 0}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Substitutions": {"home": 0, "away": 0, "total": 0}, "Attacks": {"home": 18, "away": 21, "total": 39}, "Dangerous Attacks": {"home": 6, "away": 18, "total": 24}, "On Target": {"home": 1, "away": 4, "total": 5}, "Ao Lado": {"home": 1, "away": 1, "total": 2}, "% de Posse": {"home": 43, "away": 57, "total": 100}, "Minute": {"home": 29, "away": 29, "total": 29}}</t>
+          <t>{"": {"home": 21, "away": 21, "total": 42}, "Goals": {"home": 5, "away": 0, "total": 5}, "Corners": {"home": 4, "away": 2, "total": 6}, "Corners (Half)": {"home": 2, "away": 0, "total": 2}, "Yellow Card": {"home": 3, "away": 2, "total": 5}, "Red Card": {"home": 1, "away": 1, "total": 2}, "Penaliza\u00e7\u00f5es": {"home": 0, "away": 0, "total": 0}, "Substitutions": {"home": 4, "away": 3, "total": 7}, "Attacks": {"home": 89, "away": 113, "total": 202}, "Dangerous Attacks": {"home": 46, "away": 46, "total": 92}, "On Target": {"home": 10, "away": 3, "total": 13}, "Ao Lado": {"home": 4, "away": 2, "total": 6}, "% de Posse": {"home": 50, "away": 50, "total": 100}, "Avg. Age": {"home": 19, "away": 19, "total": 38}, "National team players": {"home": 1, "away": 1, "total": 2}, "Youth national team players": {"home": 11, "away": 23, "total": 34}, "Foreigners": {"home": 8, "away": 9, "total": 17}, "Minute": {"home": 10, "away": 10, "total": 10}}</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>20:31</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -1590,62 +1618,68 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>[{"stat_key": "on-target", "side": "total", "operator": "&gt;=", "value": 2, "group_id": 0}, {"stat_key": "Minute", "side": "total", "operator": "==", "value": 29, "group_id": 0}]</t>
+          <t>[{"stat_key": "Minute", "side": "total", "operator": "&lt;=", "value": 20, "group_id": 0}, {"stat_key": "on-target", "side": "total", "operator": "&gt;=", "value": 4, "group_id": 0}]</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>[{"stat_key": "corners", "side": "total", "operator": "&gt;=", "value": 1, "outcome_type": "green"}]</t>
+          <t>[{"stat_key": "goals", "side": "total", "operator": "&gt;=", "value": 1, "outcome_type": "green"}]</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>11290686</t>
+          <t>11224343</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>2</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AK3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO3" t="n">
         <v>3</v>
       </c>
-      <c r="AI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AP3" t="n">
         <v>2</v>
       </c>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX3" t="n">
         <v>0</v>
@@ -1660,86 +1694,116 @@
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BG3" t="n">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="BH3" t="n">
+        <v>113</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>202</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>46</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>46</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>92</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV3" t="n">
         <v>21</v>
       </c>
-      <c r="BI3" t="n">
-        <v>39</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>18</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>24</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>29</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>29</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>29</v>
-      </c>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="inlineStr"/>
+      <c r="BW3" t="n">
+        <v>21</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>42</v>
+      </c>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr"/>
       <c r="CB3" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="CC3" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="CD3" t="n">
         <v>100</v>
       </c>
-      <c r="CE3" t="inlineStr"/>
-      <c r="CF3" t="inlineStr"/>
-      <c r="CG3" t="inlineStr"/>
-      <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="inlineStr"/>
-      <c r="CJ3" t="inlineStr"/>
-      <c r="CK3" t="inlineStr"/>
-      <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr"/>
-      <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr"/>
-      <c r="CP3" t="inlineStr"/>
+      <c r="CE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>19</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>38</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>11</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>8</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>17</v>
+      </c>
       <c r="CQ3" t="inlineStr"/>
       <c r="CR3" t="inlineStr"/>
       <c r="CS3" t="inlineStr"/>
@@ -1761,10 +1825,14 @@
       <c r="DI3" t="inlineStr"/>
       <c r="DJ3" t="inlineStr"/>
       <c r="DK3" t="inlineStr"/>
-      <c r="DL3" t="inlineStr"/>
-      <c r="DM3" t="inlineStr"/>
+      <c r="DL3" t="n">
+        <v>45</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>45</v>
+      </c>
       <c r="DN3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO3" t="inlineStr"/>
       <c r="DP3" t="inlineStr"/>
